--- a/TestDataXls/Milestone.xlsx
+++ b/TestDataXls/Milestone.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92111E6D-7825-486D-AD12-D5CF01DA6BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Milestone" sheetId="1" r:id="rId1"/>
@@ -65,9 +66,6 @@
     <t>Bharat mvg</t>
   </si>
   <si>
-    <t>Bharat mvi</t>
-  </si>
-  <si>
     <t>4th session (24/03/22)</t>
   </si>
   <si>
@@ -101,16 +99,19 @@
     <t xml:space="preserve">3rd Folk session </t>
   </si>
   <si>
-    <t>tutor49@nkt.com</t>
-  </si>
-  <si>
-    <t>Folk  Sess group-7</t>
+    <t>tutor53@nkt.com</t>
+  </si>
+  <si>
+    <t>Mf class 1</t>
+  </si>
+  <si>
+    <t>Mv class 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -155,14 +156,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -258,6 +258,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -293,6 +310,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -468,31 +502,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" customWidth="1"/>
+    <col min="12" max="12" width="11.88671875" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" customWidth="1"/>
     <col min="14" max="14" width="35" customWidth="1"/>
-    <col min="15" max="15" width="16.5703125" customWidth="1"/>
-    <col min="16" max="16" width="17.42578125" customWidth="1"/>
+    <col min="15" max="15" width="16.5546875" customWidth="1"/>
+    <col min="16" max="16" width="17.44140625" customWidth="1"/>
     <col min="18" max="18" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -508,37 +542,37 @@
       <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" t="s">
         <v>13</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>22</v>
+      <c r="F2" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -546,88 +580,88 @@
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>26</v>
+      <c r="F4" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="G4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>16</v>
+      <c r="F6" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="G6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -638,12 +672,12 @@
         <v>7</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" t="s">
         <v>29</v>
       </c>
       <c r="G7">
@@ -652,37 +686,38 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="E2" r:id="rId2"/>
-    <hyperlink ref="E3" r:id="rId3"/>
-    <hyperlink ref="E4" r:id="rId4"/>
-    <hyperlink ref="E5" r:id="rId5"/>
-    <hyperlink ref="E6" r:id="rId6"/>
-    <hyperlink ref="D3:D6" r:id="rId7" display="tutor36@nkt.com"/>
-    <hyperlink ref="D4" r:id="rId8"/>
-    <hyperlink ref="E7" r:id="rId9"/>
-    <hyperlink ref="D7" r:id="rId10"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D3:D6" r:id="rId6" display="tutor36@nkt.com" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D4" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E6" r:id="rId8" xr:uid="{17FDBFBC-B369-496E-865A-5561B250ECFC}"/>
+    <hyperlink ref="D6" r:id="rId9" xr:uid="{61C53F39-8BA0-4261-9F5E-3EB9C0AC919D}"/>
+    <hyperlink ref="D7" r:id="rId10" xr:uid="{0038809D-98B3-4AB0-A515-34188D0A4D07}"/>
+    <hyperlink ref="E7" r:id="rId11" xr:uid="{566650EB-886A-4E6C-B7C3-B26207753281}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="28.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -693,7 +728,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -701,54 +736,54 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
         <v>10</v>
       </c>

--- a/TestDataXls/Milestone.xlsx
+++ b/TestDataXls/Milestone.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92111E6D-7825-486D-AD12-D5CF01DA6BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CD4307-4C11-4810-B6D6-B03201AEE788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,7 +105,7 @@
     <t>Mf class 1</t>
   </si>
   <si>
-    <t>Mv class 2</t>
+    <t>PHP session 4</t>
   </si>
 </sst>
 </file>
@@ -506,7 +506,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -643,7 +643,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>7</v>

--- a/TestDataXls/Milestone.xlsx
+++ b/TestDataXls/Milestone.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CD4307-4C11-4810-B6D6-B03201AEE788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2865C944-1216-42E7-AF3A-3844B0400029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="37">
   <si>
     <t>password</t>
   </si>
@@ -96,16 +96,37 @@
     <t xml:space="preserve">Mvg Tamil   </t>
   </si>
   <si>
-    <t xml:space="preserve">3rd Folk session </t>
-  </si>
-  <si>
     <t>tutor53@nkt.com</t>
   </si>
   <si>
     <t>Mf class 1</t>
   </si>
   <si>
-    <t>PHP session 4</t>
+    <t>Java session 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1rd  session </t>
+  </si>
+  <si>
+    <t>tutor54@nkt.com</t>
+  </si>
+  <si>
+    <t>paint sess 1</t>
+  </si>
+  <si>
+    <t>paint fix 1</t>
+  </si>
+  <si>
+    <t>paint var 1</t>
+  </si>
+  <si>
+    <t>paint sess 1 ind</t>
+  </si>
+  <si>
+    <t>paint fix 1 ind</t>
+  </si>
+  <si>
+    <t>paint var 1 ind</t>
   </si>
 </sst>
 </file>
@@ -503,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -649,13 +670,13 @@
         <v>7</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -666,21 +687,159 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7">
+      <c r="C13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13">
         <v>5</v>
       </c>
     </row>
@@ -697,9 +856,17 @@
     <hyperlink ref="D6" r:id="rId9" xr:uid="{61C53F39-8BA0-4261-9F5E-3EB9C0AC919D}"/>
     <hyperlink ref="D7" r:id="rId10" xr:uid="{0038809D-98B3-4AB0-A515-34188D0A4D07}"/>
     <hyperlink ref="E7" r:id="rId11" xr:uid="{566650EB-886A-4E6C-B7C3-B26207753281}"/>
+    <hyperlink ref="D8" r:id="rId12" xr:uid="{BD2A9949-90BD-499E-B927-9EF320A13BF5}"/>
+    <hyperlink ref="E8" r:id="rId13" xr:uid="{FD70F444-10D6-4B2D-A570-5361F104EB3F}"/>
+    <hyperlink ref="E9" r:id="rId14" xr:uid="{EAA175EF-9825-450F-99A4-C6B5D011F47B}"/>
+    <hyperlink ref="E10" r:id="rId15" xr:uid="{C32135CB-7705-40E4-B351-15D601782087}"/>
+    <hyperlink ref="E11" r:id="rId16" xr:uid="{D9A81C88-9ACA-4201-941F-168C425096BF}"/>
+    <hyperlink ref="E12" r:id="rId17" xr:uid="{2512D2FF-7D97-4421-8D6E-00E1BBC5A62D}"/>
+    <hyperlink ref="E13" r:id="rId18" xr:uid="{A3AB9989-E134-46D5-ABBD-9898BC759E0C}"/>
+    <hyperlink ref="D9:D13" r:id="rId19" display="tutor54@nkt.com" xr:uid="{08BA7694-90C1-418F-9D2A-A5E1A855B482}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>
 
@@ -708,7 +875,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -736,7 +903,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -744,7 +911,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>22</v>
@@ -755,7 +922,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>

--- a/TestDataXls/Milestone.xlsx
+++ b/TestDataXls/Milestone.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2865C944-1216-42E7-AF3A-3844B0400029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70635002-AEED-4D3F-B364-3E3FDCCC3373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Milestone" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="38">
   <si>
     <t>password</t>
   </si>
@@ -111,29 +111,32 @@
     <t>tutor54@nkt.com</t>
   </si>
   <si>
-    <t>paint sess 1</t>
-  </si>
-  <si>
-    <t>paint fix 1</t>
-  </si>
-  <si>
-    <t>paint var 1</t>
-  </si>
-  <si>
     <t>paint sess 1 ind</t>
   </si>
   <si>
     <t>paint fix 1 ind</t>
   </si>
   <si>
-    <t>paint var 1 ind</t>
+    <t>Pilot sess 1</t>
+  </si>
+  <si>
+    <t>srinivasesaivanan6324@gmail.com</t>
+  </si>
+  <si>
+    <t>Pilot MV 1</t>
+  </si>
+  <si>
+    <t>Pilot MF 1</t>
+  </si>
+  <si>
+    <t>Test@1234</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,6 +157,12 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -527,7 +536,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -715,14 +724,14 @@
       <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>30</v>
+      <c r="D8" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G8">
         <v>5</v>
@@ -733,19 +742,19 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>30</v>
+      <c r="D9" t="s">
+        <v>34</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -761,14 +770,14 @@
       <c r="C10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>30</v>
+      <c r="D10" t="s">
+        <v>34</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G10">
         <v>5</v>
@@ -791,7 +800,7 @@
         <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -814,7 +823,7 @@
         <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G12">
         <v>5</v>
@@ -825,7 +834,7 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>7</v>
@@ -837,13 +846,14 @@
         <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G13">
         <v>5</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="E2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
@@ -856,17 +866,15 @@
     <hyperlink ref="D6" r:id="rId9" xr:uid="{61C53F39-8BA0-4261-9F5E-3EB9C0AC919D}"/>
     <hyperlink ref="D7" r:id="rId10" xr:uid="{0038809D-98B3-4AB0-A515-34188D0A4D07}"/>
     <hyperlink ref="E7" r:id="rId11" xr:uid="{566650EB-886A-4E6C-B7C3-B26207753281}"/>
-    <hyperlink ref="D8" r:id="rId12" xr:uid="{BD2A9949-90BD-499E-B927-9EF320A13BF5}"/>
-    <hyperlink ref="E8" r:id="rId13" xr:uid="{FD70F444-10D6-4B2D-A570-5361F104EB3F}"/>
-    <hyperlink ref="E9" r:id="rId14" xr:uid="{EAA175EF-9825-450F-99A4-C6B5D011F47B}"/>
-    <hyperlink ref="E10" r:id="rId15" xr:uid="{C32135CB-7705-40E4-B351-15D601782087}"/>
-    <hyperlink ref="E11" r:id="rId16" xr:uid="{D9A81C88-9ACA-4201-941F-168C425096BF}"/>
-    <hyperlink ref="E12" r:id="rId17" xr:uid="{2512D2FF-7D97-4421-8D6E-00E1BBC5A62D}"/>
-    <hyperlink ref="E13" r:id="rId18" xr:uid="{A3AB9989-E134-46D5-ABBD-9898BC759E0C}"/>
-    <hyperlink ref="D9:D13" r:id="rId19" display="tutor54@nkt.com" xr:uid="{08BA7694-90C1-418F-9D2A-A5E1A855B482}"/>
+    <hyperlink ref="E8" r:id="rId12" xr:uid="{FD70F444-10D6-4B2D-A570-5361F104EB3F}"/>
+    <hyperlink ref="E11" r:id="rId13" xr:uid="{D9A81C88-9ACA-4201-941F-168C425096BF}"/>
+    <hyperlink ref="E12" r:id="rId14" xr:uid="{2512D2FF-7D97-4421-8D6E-00E1BBC5A62D}"/>
+    <hyperlink ref="E13" r:id="rId15" xr:uid="{A3AB9989-E134-46D5-ABBD-9898BC759E0C}"/>
+    <hyperlink ref="E9:E10" r:id="rId16" display="Test@1234" xr:uid="{426162B4-DAF1-48C5-B60B-4B9E0C71D8AE}"/>
+    <hyperlink ref="D8" r:id="rId17" xr:uid="{EA3CEEBF-E158-476E-A28B-8882B647B68B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId20"/>
+  <pageSetup orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
 
